--- a/index/constituent_history/000016.xlsx
+++ b/index/constituent_history/000016.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr showBorderUnselectedTables="1" showInkAnnotation="1" saveExternalLinkValues="1" autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10320" yWindow="5680" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="765">
   <si>
     <t>序号</t>
   </si>
@@ -2210,52 +2217,159 @@
     <t>334</t>
   </si>
   <si>
-    <t>数据来源：东方财富Choice数据</t>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>600606</t>
+  </si>
+  <si>
+    <t>绿地控股</t>
+  </si>
+  <si>
+    <t>600919</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>601229</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>601881</t>
+  </si>
+  <si>
+    <t>中国银河</t>
+  </si>
+  <si>
+    <t>纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>剔除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600109</t>
+  </si>
+  <si>
+    <t>600637</t>
+  </si>
+  <si>
+    <t>600893</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>601377</t>
+  </si>
+  <si>
+    <t>601998</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-MM-dd HH:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Simsun"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2263,10 +2377,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2274,92 +2388,401 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="9">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H343" sqref="H343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.0625" style="0" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.0625" style="0" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2375,8 +2798,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -2392,8 +2815,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -2409,8 +2832,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -2426,8 +2849,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -2443,8 +2866,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -2460,8 +2883,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
@@ -2477,8 +2900,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -2494,8 +2917,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
@@ -2511,8 +2934,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -2528,8 +2951,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
@@ -2545,8 +2968,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -2562,8 +2985,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
@@ -2579,8 +3002,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -2596,8 +3019,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B16" t="s">
@@ -2613,8 +3036,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
@@ -2630,8 +3053,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
@@ -2647,8 +3070,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -2664,8 +3087,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
@@ -2681,8 +3104,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -2698,8 +3121,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -2715,8 +3138,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B23" t="s">
@@ -2732,8 +3155,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
@@ -2749,8 +3172,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
@@ -2766,8 +3189,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B26" t="s">
@@ -2783,8 +3206,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
@@ -2800,8 +3223,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
@@ -2817,8 +3240,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
@@ -2834,8 +3257,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B30" t="s">
@@ -2851,8 +3274,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B31" t="s">
@@ -2868,8 +3291,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B32" t="s">
@@ -2885,8 +3308,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B33" t="s">
@@ -2902,8 +3325,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B34" t="s">
@@ -2919,8 +3342,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B35" t="s">
@@ -2936,8 +3359,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B36" t="s">
@@ -2953,8 +3376,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B37" t="s">
@@ -2970,8 +3393,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B38" t="s">
@@ -2987,8 +3410,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B39" t="s">
@@ -3004,8 +3427,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B40" t="s">
@@ -3021,8 +3444,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B41" t="s">
@@ -3038,8 +3461,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B42" t="s">
@@ -3055,8 +3478,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B43" t="s">
@@ -3072,8 +3495,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B44" t="s">
@@ -3089,8 +3512,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B45" t="s">
@@ -3106,8 +3529,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B46" t="s">
@@ -3123,8 +3546,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B47" t="s">
@@ -3140,8 +3563,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B48" t="s">
@@ -3157,8 +3580,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B49" t="s">
@@ -3174,8 +3597,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B50" t="s">
@@ -3191,8 +3614,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B51" t="s">
@@ -3208,8 +3631,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B52" t="s">
@@ -3225,8 +3648,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B53" t="s">
@@ -3242,8 +3665,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B54" t="s">
@@ -3259,8 +3682,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B55" t="s">
@@ -3276,8 +3699,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B56" t="s">
@@ -3293,8 +3716,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B57" t="s">
@@ -3310,8 +3733,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B58" t="s">
@@ -3327,8 +3750,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B59" t="s">
@@ -3344,8 +3767,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B60" t="s">
@@ -3361,8 +3784,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B61" t="s">
@@ -3378,8 +3801,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B62" t="s">
@@ -3395,8 +3818,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B63" t="s">
@@ -3412,8 +3835,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B64" t="s">
@@ -3429,8 +3852,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B65" t="s">
@@ -3446,8 +3869,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B66" t="s">
@@ -3463,8 +3886,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B67" t="s">
@@ -3480,8 +3903,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B68" t="s">
@@ -3497,8 +3920,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B69" t="s">
@@ -3514,8 +3937,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
@@ -3531,8 +3954,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B71" t="s">
@@ -3548,8 +3971,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B72" t="s">
@@ -3565,8 +3988,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B73" t="s">
@@ -3582,8 +4005,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B74" t="s">
@@ -3599,8 +4022,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B75" t="s">
@@ -3616,8 +4039,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B76" t="s">
@@ -3633,8 +4056,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B77" t="s">
@@ -3650,8 +4073,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B78" t="s">
@@ -3667,8 +4090,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B79" t="s">
@@ -3684,8 +4107,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B80" t="s">
@@ -3701,8 +4124,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B81" t="s">
@@ -3718,8 +4141,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B82" t="s">
@@ -3735,8 +4158,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B83" t="s">
@@ -3752,8 +4175,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B84" t="s">
@@ -3769,8 +4192,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B85" t="s">
@@ -3786,8 +4209,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B86" t="s">
@@ -3803,8 +4226,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B87" t="s">
@@ -3820,8 +4243,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B88" t="s">
@@ -3837,8 +4260,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B89" t="s">
@@ -3854,8 +4277,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B90" t="s">
@@ -3871,8 +4294,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B91" t="s">
@@ -3888,8 +4311,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B92" t="s">
@@ -3905,8 +4328,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B93" t="s">
@@ -3922,8 +4345,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B94" t="s">
@@ -3939,8 +4362,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B95" t="s">
@@ -3956,8 +4379,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B96" t="s">
@@ -3973,8 +4396,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B97" t="s">
@@ -3990,8 +4413,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B98" t="s">
@@ -4007,8 +4430,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B99" t="s">
@@ -4024,8 +4447,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B100" t="s">
@@ -4041,8 +4464,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B101" t="s">
@@ -4058,8 +4481,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B102" t="s">
@@ -4075,8 +4498,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B103" t="s">
@@ -4092,8 +4515,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B104" t="s">
@@ -4109,8 +4532,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B105" t="s">
@@ -4126,8 +4549,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B106" t="s">
@@ -4143,8 +4566,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B107" t="s">
@@ -4160,8 +4583,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B108" t="s">
@@ -4177,8 +4600,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B109" t="s">
@@ -4194,8 +4617,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B110" t="s">
@@ -4211,8 +4634,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B111" t="s">
@@ -4228,8 +4651,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="12" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B112" t="s">
@@ -4245,8 +4668,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B113" t="s">
@@ -4262,8 +4685,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B114" t="s">
@@ -4279,8 +4702,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B115" t="s">
@@ -4296,8 +4719,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B116" t="s">
@@ -4313,8 +4736,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B117" t="s">
@@ -4330,8 +4753,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B118" t="s">
@@ -4347,8 +4770,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B119" t="s">
@@ -4364,8 +4787,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B120" t="s">
@@ -4381,8 +4804,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B121" t="s">
@@ -4398,8 +4821,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B122" t="s">
@@ -4415,8 +4838,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B123" t="s">
@@ -4432,8 +4855,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B124" t="s">
@@ -4449,8 +4872,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B125" t="s">
@@ -4466,8 +4889,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B126" t="s">
@@ -4483,8 +4906,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B127" t="s">
@@ -4500,8 +4923,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B128" t="s">
@@ -4517,8 +4940,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B129" t="s">
@@ -4534,8 +4957,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B130" t="s">
@@ -4551,8 +4974,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B131" t="s">
@@ -4568,8 +4991,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B132" t="s">
@@ -4585,8 +5008,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B133" t="s">
@@ -4602,8 +5025,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B134" t="s">
@@ -4619,8 +5042,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B135" t="s">
@@ -4636,8 +5059,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B136" t="s">
@@ -4653,8 +5076,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B137" t="s">
@@ -4670,8 +5093,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B138" t="s">
@@ -4687,8 +5110,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B139" t="s">
@@ -4704,8 +5127,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" s="3" t="s">
         <v>359</v>
       </c>
       <c r="B140" t="s">
@@ -4721,8 +5144,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:5">
+      <c r="A141" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B141" t="s">
@@ -4738,8 +5161,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B142" t="s">
@@ -4755,8 +5178,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" s="3" t="s">
         <v>368</v>
       </c>
       <c r="B143" t="s">
@@ -4772,8 +5195,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B144" t="s">
@@ -4789,8 +5212,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:5">
+      <c r="A145" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B145" t="s">
@@ -4806,8 +5229,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:5">
+      <c r="A146" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B146" t="s">
@@ -4823,8 +5246,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="3" t="s">
         <v>379</v>
       </c>
       <c r="B147" t="s">
@@ -4840,8 +5263,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:5">
+      <c r="A148" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B148" t="s">
@@ -4857,8 +5280,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B149" t="s">
@@ -4874,8 +5297,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B150" t="s">
@@ -4891,8 +5314,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B151" t="s">
@@ -4908,8 +5331,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B152" t="s">
@@ -4925,8 +5348,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B153" t="s">
@@ -4942,8 +5365,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B154" t="s">
@@ -4959,8 +5382,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:5">
+      <c r="A155" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B155" t="s">
@@ -4976,8 +5399,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:5">
+      <c r="A156" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B156" t="s">
@@ -4993,8 +5416,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:5">
+      <c r="A157" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B157" t="s">
@@ -5010,8 +5433,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="12" t="s">
+    <row r="158" spans="1:5">
+      <c r="A158" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B158" t="s">
@@ -5027,8 +5450,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B159" t="s">
@@ -5044,8 +5467,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="12" t="s">
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B160" t="s">
@@ -5061,8 +5484,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="12" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B161" t="s">
@@ -5078,8 +5501,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="12" t="s">
+    <row r="162" spans="1:5">
+      <c r="A162" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B162" t="s">
@@ -5095,8 +5518,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:5">
+      <c r="A163" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B163" t="s">
@@ -5112,8 +5535,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="12" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="3" t="s">
         <v>413</v>
       </c>
       <c r="B164" t="s">
@@ -5129,8 +5552,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="12" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B165" t="s">
@@ -5146,8 +5569,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B166" t="s">
@@ -5163,8 +5586,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B167" t="s">
@@ -5180,8 +5603,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="12" t="s">
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B168" t="s">
@@ -5197,8 +5620,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B169" t="s">
@@ -5214,8 +5637,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="12" t="s">
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B170" t="s">
@@ -5231,8 +5654,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="12" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B171" t="s">
@@ -5248,8 +5671,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B172" t="s">
@@ -5265,8 +5688,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="12" t="s">
+    <row r="173" spans="1:5">
+      <c r="A173" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B173" t="s">
@@ -5282,8 +5705,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="12" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B174" t="s">
@@ -5299,8 +5722,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B175" t="s">
@@ -5316,8 +5739,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="12" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B176" t="s">
@@ -5333,8 +5756,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="12" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B177" t="s">
@@ -5350,8 +5773,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B178" t="s">
@@ -5367,8 +5790,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="12" t="s">
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B179" t="s">
@@ -5384,8 +5807,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="12" t="s">
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B180" t="s">
@@ -5401,8 +5824,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:5">
+      <c r="A181" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B181" t="s">
@@ -5418,8 +5841,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="12" t="s">
+    <row r="182" spans="1:5">
+      <c r="A182" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B182" t="s">
@@ -5435,8 +5858,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="12" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B183" t="s">
@@ -5452,8 +5875,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B184" t="s">
@@ -5469,8 +5892,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="12" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B185" t="s">
@@ -5486,8 +5909,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="12" t="s">
+    <row r="186" spans="1:5">
+      <c r="A186" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B186" t="s">
@@ -5503,8 +5926,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:5">
+      <c r="A187" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B187" t="s">
@@ -5520,8 +5943,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="12" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B188" t="s">
@@ -5537,8 +5960,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="12" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B189" t="s">
@@ -5554,8 +5977,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:5">
+      <c r="A190" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B190" t="s">
@@ -5571,8 +5994,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="12" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="3" t="s">
         <v>471</v>
       </c>
       <c r="B191" t="s">
@@ -5588,8 +6011,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="12" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B192" t="s">
@@ -5605,8 +6028,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:5">
+      <c r="A193" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B193" t="s">
@@ -5622,8 +6045,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="12" t="s">
+    <row r="194" spans="1:5">
+      <c r="A194" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B194" t="s">
@@ -5639,8 +6062,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="12" t="s">
+    <row r="195" spans="1:5">
+      <c r="A195" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B195" t="s">
@@ -5656,8 +6079,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:5">
+      <c r="A196" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B196" t="s">
@@ -5673,8 +6096,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="12" t="s">
+    <row r="197" spans="1:5">
+      <c r="A197" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B197" t="s">
@@ -5690,8 +6113,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="12" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B198" t="s">
@@ -5707,8 +6130,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="12" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B199" t="s">
@@ -5724,8 +6147,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="12" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B200" t="s">
@@ -5741,8 +6164,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="12" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B201" t="s">
@@ -5758,8 +6181,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="12" t="s">
+    <row r="202" spans="1:5">
+      <c r="A202" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B202" t="s">
@@ -5775,8 +6198,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B203" t="s">
@@ -5792,8 +6215,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="12" t="s">
+    <row r="204" spans="1:5">
+      <c r="A204" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B204" t="s">
@@ -5809,8 +6232,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="12" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B205" t="s">
@@ -5826,8 +6249,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B206" t="s">
@@ -5843,8 +6266,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="12" t="s">
+    <row r="207" spans="1:5">
+      <c r="A207" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B207" t="s">
@@ -5860,8 +6283,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="12" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B208" t="s">
@@ -5877,8 +6300,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:5">
+      <c r="A209" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B209" t="s">
@@ -5894,8 +6317,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="12" t="s">
+    <row r="210" spans="1:5">
+      <c r="A210" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B210" t="s">
@@ -5911,8 +6334,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="12" t="s">
+    <row r="211" spans="1:5">
+      <c r="A211" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B211" t="s">
@@ -5928,8 +6351,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:5">
+      <c r="A212" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B212" t="s">
@@ -5945,8 +6368,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="12" t="s">
+    <row r="213" spans="1:5">
+      <c r="A213" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B213" t="s">
@@ -5962,8 +6385,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="12" t="s">
+    <row r="214" spans="1:5">
+      <c r="A214" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B214" t="s">
@@ -5979,8 +6402,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:5">
+      <c r="A215" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B215" t="s">
@@ -5996,8 +6419,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="12" t="s">
+    <row r="216" spans="1:5">
+      <c r="A216" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B216" t="s">
@@ -6013,8 +6436,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="12" t="s">
+    <row r="217" spans="1:5">
+      <c r="A217" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B217" t="s">
@@ -6030,8 +6453,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:5">
+      <c r="A218" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B218" t="s">
@@ -6047,8 +6470,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="12" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B219" t="s">
@@ -6064,8 +6487,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="12" t="s">
+    <row r="220" spans="1:5">
+      <c r="A220" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B220" t="s">
@@ -6081,8 +6504,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B221" t="s">
@@ -6098,8 +6521,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="12" t="s">
+    <row r="222" spans="1:5">
+      <c r="A222" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B222" t="s">
@@ -6115,8 +6538,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="12" t="s">
+    <row r="223" spans="1:5">
+      <c r="A223" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B223" t="s">
@@ -6132,8 +6555,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:5">
+      <c r="A224" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B224" t="s">
@@ -6149,8 +6572,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="12" t="s">
+    <row r="225" spans="1:5">
+      <c r="A225" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B225" t="s">
@@ -6166,8 +6589,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="12" t="s">
+    <row r="226" spans="1:5">
+      <c r="A226" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B226" t="s">
@@ -6183,8 +6606,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:5">
+      <c r="A227" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B227" t="s">
@@ -6200,8 +6623,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="12" t="s">
+    <row r="228" spans="1:5">
+      <c r="A228" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B228" t="s">
@@ -6217,8 +6640,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="12" t="s">
+    <row r="229" spans="1:5">
+      <c r="A229" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B229" t="s">
@@ -6234,8 +6657,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:5">
+      <c r="A230" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B230" t="s">
@@ -6251,8 +6674,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="12" t="s">
+    <row r="231" spans="1:5">
+      <c r="A231" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B231" t="s">
@@ -6268,8 +6691,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="12" t="s">
+    <row r="232" spans="1:5">
+      <c r="A232" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B232" t="s">
@@ -6285,8 +6708,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:5">
+      <c r="A233" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B233" t="s">
@@ -6302,8 +6725,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="12" t="s">
+    <row r="234" spans="1:5">
+      <c r="A234" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B234" t="s">
@@ -6319,8 +6742,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="12" t="s">
+    <row r="235" spans="1:5">
+      <c r="A235" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B235" t="s">
@@ -6336,8 +6759,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:5">
+      <c r="A236" s="3" t="s">
         <v>565</v>
       </c>
       <c r="B236" t="s">
@@ -6353,8 +6776,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="12" t="s">
+    <row r="237" spans="1:5">
+      <c r="A237" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B237" t="s">
@@ -6370,8 +6793,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="12" t="s">
+    <row r="238" spans="1:5">
+      <c r="A238" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B238" t="s">
@@ -6387,8 +6810,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="12" t="s">
+    <row r="239" spans="1:5">
+      <c r="A239" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B239" t="s">
@@ -6404,8 +6827,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="12" t="s">
+    <row r="240" spans="1:5">
+      <c r="A240" s="3" t="s">
         <v>570</v>
       </c>
       <c r="B240" t="s">
@@ -6421,8 +6844,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="12" t="s">
+    <row r="241" spans="1:5">
+      <c r="A241" s="3" t="s">
         <v>574</v>
       </c>
       <c r="B241" t="s">
@@ -6438,8 +6861,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="12" t="s">
+    <row r="242" spans="1:5">
+      <c r="A242" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B242" t="s">
@@ -6455,8 +6878,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:5">
+      <c r="A243" s="3" t="s">
         <v>578</v>
       </c>
       <c r="B243" t="s">
@@ -6472,8 +6895,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="12" t="s">
+    <row r="244" spans="1:5">
+      <c r="A244" s="3" t="s">
         <v>581</v>
       </c>
       <c r="B244" t="s">
@@ -6489,8 +6912,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="12" t="s">
+    <row r="245" spans="1:5">
+      <c r="A245" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B245" t="s">
@@ -6506,8 +6929,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:5">
+      <c r="A246" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B246" t="s">
@@ -6523,8 +6946,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="12" t="s">
+    <row r="247" spans="1:5">
+      <c r="A247" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B247" t="s">
@@ -6540,8 +6963,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="12" t="s">
+    <row r="248" spans="1:5">
+      <c r="A248" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B248" t="s">
@@ -6557,8 +6980,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:5">
+      <c r="A249" s="3" t="s">
         <v>587</v>
       </c>
       <c r="B249" t="s">
@@ -6574,8 +6997,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="12" t="s">
+    <row r="250" spans="1:5">
+      <c r="A250" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B250" t="s">
@@ -6591,8 +7014,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="12" t="s">
+    <row r="251" spans="1:5">
+      <c r="A251" s="3" t="s">
         <v>594</v>
       </c>
       <c r="B251" t="s">
@@ -6608,8 +7031,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:5">
+      <c r="A252" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B252" t="s">
@@ -6625,8 +7048,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="12" t="s">
+    <row r="253" spans="1:5">
+      <c r="A253" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B253" t="s">
@@ -6642,8 +7065,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="12" t="s">
+    <row r="254" spans="1:5">
+      <c r="A254" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B254" t="s">
@@ -6659,8 +7082,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="12" t="s">
+    <row r="255" spans="1:5">
+      <c r="A255" s="3" t="s">
         <v>603</v>
       </c>
       <c r="B255" t="s">
@@ -6676,8 +7099,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="12" t="s">
+    <row r="256" spans="1:5">
+      <c r="A256" s="3" t="s">
         <v>604</v>
       </c>
       <c r="B256" t="s">
@@ -6693,8 +7116,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="12" t="s">
+    <row r="257" spans="1:5">
+      <c r="A257" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B257" t="s">
@@ -6710,8 +7133,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="12" t="s">
+    <row r="258" spans="1:5">
+      <c r="A258" s="3" t="s">
         <v>606</v>
       </c>
       <c r="B258" t="s">
@@ -6727,8 +7150,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="12" t="s">
+    <row r="259" spans="1:5">
+      <c r="A259" s="3" t="s">
         <v>608</v>
       </c>
       <c r="B259" t="s">
@@ -6744,8 +7167,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="12" t="s">
+    <row r="260" spans="1:5">
+      <c r="A260" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B260" t="s">
@@ -6761,8 +7184,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:5">
+      <c r="A261" s="3" t="s">
         <v>614</v>
       </c>
       <c r="B261" t="s">
@@ -6778,8 +7201,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="12" t="s">
+    <row r="262" spans="1:5">
+      <c r="A262" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B262" t="s">
@@ -6795,8 +7218,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="12" t="s">
+    <row r="263" spans="1:5">
+      <c r="A263" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B263" t="s">
@@ -6812,8 +7235,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="12" t="s">
+    <row r="264" spans="1:5">
+      <c r="A264" s="3" t="s">
         <v>618</v>
       </c>
       <c r="B264" t="s">
@@ -6829,8 +7252,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="12" t="s">
+    <row r="265" spans="1:5">
+      <c r="A265" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B265" t="s">
@@ -6846,8 +7269,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="12" t="s">
+    <row r="266" spans="1:5">
+      <c r="A266" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B266" t="s">
@@ -6863,8 +7286,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="12" t="s">
+    <row r="267" spans="1:5">
+      <c r="A267" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B267" t="s">
@@ -6880,8 +7303,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="12" t="s">
+    <row r="268" spans="1:5">
+      <c r="A268" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B268" t="s">
@@ -6897,8 +7320,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="12" t="s">
+    <row r="269" spans="1:5">
+      <c r="A269" s="3" t="s">
         <v>626</v>
       </c>
       <c r="B269" t="s">
@@ -6914,8 +7337,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="12" t="s">
+    <row r="270" spans="1:5">
+      <c r="A270" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B270" t="s">
@@ -6931,8 +7354,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="12" t="s">
+    <row r="271" spans="1:5">
+      <c r="A271" s="3" t="s">
         <v>630</v>
       </c>
       <c r="B271" t="s">
@@ -6948,8 +7371,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="12" t="s">
+    <row r="272" spans="1:5">
+      <c r="A272" s="3" t="s">
         <v>633</v>
       </c>
       <c r="B272" t="s">
@@ -6965,8 +7388,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="12" t="s">
+    <row r="273" spans="1:5">
+      <c r="A273" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B273" t="s">
@@ -6982,8 +7405,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="12" t="s">
+    <row r="274" spans="1:5">
+      <c r="A274" s="3" t="s">
         <v>636</v>
       </c>
       <c r="B274" t="s">
@@ -6999,8 +7422,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="12" t="s">
+    <row r="275" spans="1:5">
+      <c r="A275" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B275" t="s">
@@ -7016,8 +7439,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="12" t="s">
+    <row r="276" spans="1:5">
+      <c r="A276" s="3" t="s">
         <v>638</v>
       </c>
       <c r="B276" t="s">
@@ -7033,8 +7456,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="12" t="s">
+    <row r="277" spans="1:5">
+      <c r="A277" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B277" t="s">
@@ -7050,8 +7473,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="12" t="s">
+    <row r="278" spans="1:5">
+      <c r="A278" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B278" t="s">
@@ -7067,8 +7490,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="12" t="s">
+    <row r="279" spans="1:5">
+      <c r="A279" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B279" t="s">
@@ -7084,8 +7507,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="12" t="s">
+    <row r="280" spans="1:5">
+      <c r="A280" s="3" t="s">
         <v>647</v>
       </c>
       <c r="B280" t="s">
@@ -7101,8 +7524,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="12" t="s">
+    <row r="281" spans="1:5">
+      <c r="A281" s="3" t="s">
         <v>648</v>
       </c>
       <c r="B281" t="s">
@@ -7118,8 +7541,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="12" t="s">
+    <row r="282" spans="1:5">
+      <c r="A282" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B282" t="s">
@@ -7135,8 +7558,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="12" t="s">
+    <row r="283" spans="1:5">
+      <c r="A283" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B283" t="s">
@@ -7152,8 +7575,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="12" t="s">
+    <row r="284" spans="1:5">
+      <c r="A284" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B284" t="s">
@@ -7169,8 +7592,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="12" t="s">
+    <row r="285" spans="1:5">
+      <c r="A285" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B285" t="s">
@@ -7186,8 +7609,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="12" t="s">
+    <row r="286" spans="1:5">
+      <c r="A286" s="3" t="s">
         <v>654</v>
       </c>
       <c r="B286" t="s">
@@ -7203,8 +7626,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="12" t="s">
+    <row r="287" spans="1:5">
+      <c r="A287" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B287" t="s">
@@ -7220,8 +7643,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="12" t="s">
+    <row r="288" spans="1:5">
+      <c r="A288" s="3" t="s">
         <v>659</v>
       </c>
       <c r="B288" t="s">
@@ -7237,8 +7660,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="12" t="s">
+    <row r="289" spans="1:5">
+      <c r="A289" s="3" t="s">
         <v>662</v>
       </c>
       <c r="B289" t="s">
@@ -7254,8 +7677,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="12" t="s">
+    <row r="290" spans="1:5">
+      <c r="A290" s="3" t="s">
         <v>665</v>
       </c>
       <c r="B290" t="s">
@@ -7271,8 +7694,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="12" t="s">
+    <row r="291" spans="1:5">
+      <c r="A291" s="3" t="s">
         <v>668</v>
       </c>
       <c r="B291" t="s">
@@ -7288,8 +7711,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="12" t="s">
+    <row r="292" spans="1:5">
+      <c r="A292" s="3" t="s">
         <v>669</v>
       </c>
       <c r="B292" t="s">
@@ -7305,8 +7728,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="12" t="s">
+    <row r="293" spans="1:5">
+      <c r="A293" s="3" t="s">
         <v>671</v>
       </c>
       <c r="B293" t="s">
@@ -7322,8 +7745,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="12" t="s">
+    <row r="294" spans="1:5">
+      <c r="A294" s="3" t="s">
         <v>672</v>
       </c>
       <c r="B294" t="s">
@@ -7339,8 +7762,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="12" t="s">
+    <row r="295" spans="1:5">
+      <c r="A295" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B295" t="s">
@@ -7356,8 +7779,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="12" t="s">
+    <row r="296" spans="1:5">
+      <c r="A296" s="3" t="s">
         <v>676</v>
       </c>
       <c r="B296" t="s">
@@ -7373,8 +7796,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="12" t="s">
+    <row r="297" spans="1:5">
+      <c r="A297" s="3" t="s">
         <v>678</v>
       </c>
       <c r="B297" t="s">
@@ -7390,8 +7813,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="12" t="s">
+    <row r="298" spans="1:5">
+      <c r="A298" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B298" t="s">
@@ -7407,8 +7830,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="12" t="s">
+    <row r="299" spans="1:5">
+      <c r="A299" s="3" t="s">
         <v>680</v>
       </c>
       <c r="B299" t="s">
@@ -7424,8 +7847,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="12" t="s">
+    <row r="300" spans="1:5">
+      <c r="A300" s="3" t="s">
         <v>681</v>
       </c>
       <c r="B300" t="s">
@@ -7441,8 +7864,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="12" t="s">
+    <row r="301" spans="1:5">
+      <c r="A301" s="3" t="s">
         <v>684</v>
       </c>
       <c r="B301" t="s">
@@ -7458,8 +7881,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="12" t="s">
+    <row r="302" spans="1:5">
+      <c r="A302" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B302" t="s">
@@ -7475,8 +7898,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="12" t="s">
+    <row r="303" spans="1:5">
+      <c r="A303" s="3" t="s">
         <v>686</v>
       </c>
       <c r="B303" t="s">
@@ -7492,8 +7915,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="12" t="s">
+    <row r="304" spans="1:5">
+      <c r="A304" s="3" t="s">
         <v>687</v>
       </c>
       <c r="B304" t="s">
@@ -7509,8 +7932,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="12" t="s">
+    <row r="305" spans="1:5">
+      <c r="A305" s="3" t="s">
         <v>688</v>
       </c>
       <c r="B305" t="s">
@@ -7526,8 +7949,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="12" t="s">
+    <row r="306" spans="1:5">
+      <c r="A306" s="3" t="s">
         <v>689</v>
       </c>
       <c r="B306" t="s">
@@ -7543,8 +7966,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="12" t="s">
+    <row r="307" spans="1:5">
+      <c r="A307" s="3" t="s">
         <v>691</v>
       </c>
       <c r="B307" t="s">
@@ -7560,8 +7983,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="12" t="s">
+    <row r="308" spans="1:5">
+      <c r="A308" s="3" t="s">
         <v>692</v>
       </c>
       <c r="B308" t="s">
@@ -7577,8 +8000,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="12" t="s">
+    <row r="309" spans="1:5">
+      <c r="A309" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B309" t="s">
@@ -7594,8 +8017,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="12" t="s">
+    <row r="310" spans="1:5">
+      <c r="A310" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B310" t="s">
@@ -7611,8 +8034,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="12" t="s">
+    <row r="311" spans="1:5">
+      <c r="A311" s="3" t="s">
         <v>695</v>
       </c>
       <c r="B311" t="s">
@@ -7628,8 +8051,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="12" t="s">
+    <row r="312" spans="1:5">
+      <c r="A312" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B312" t="s">
@@ -7645,8 +8068,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="12" t="s">
+    <row r="313" spans="1:5">
+      <c r="A313" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B313" t="s">
@@ -7662,8 +8085,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="12" t="s">
+    <row r="314" spans="1:5">
+      <c r="A314" s="3" t="s">
         <v>700</v>
       </c>
       <c r="B314" t="s">
@@ -7679,8 +8102,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="12" t="s">
+    <row r="315" spans="1:5">
+      <c r="A315" s="3" t="s">
         <v>701</v>
       </c>
       <c r="B315" t="s">
@@ -7696,8 +8119,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="12" t="s">
+    <row r="316" spans="1:5">
+      <c r="A316" s="3" t="s">
         <v>704</v>
       </c>
       <c r="B316" t="s">
@@ -7713,8 +8136,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="12" t="s">
+    <row r="317" spans="1:5">
+      <c r="A317" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B317" t="s">
@@ -7730,8 +8153,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="12" t="s">
+    <row r="318" spans="1:5">
+      <c r="A318" s="3" t="s">
         <v>707</v>
       </c>
       <c r="B318" t="s">
@@ -7747,8 +8170,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="12" t="s">
+    <row r="319" spans="1:5">
+      <c r="A319" s="3" t="s">
         <v>708</v>
       </c>
       <c r="B319" t="s">
@@ -7764,8 +8187,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="12" t="s">
+    <row r="320" spans="1:5">
+      <c r="A320" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B320" t="s">
@@ -7781,8 +8204,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="12" t="s">
+    <row r="321" spans="1:5">
+      <c r="A321" s="3" t="s">
         <v>710</v>
       </c>
       <c r="B321" t="s">
@@ -7798,8 +8221,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="12" t="s">
+    <row r="322" spans="1:5">
+      <c r="A322" s="3" t="s">
         <v>713</v>
       </c>
       <c r="B322" t="s">
@@ -7815,8 +8238,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="12" t="s">
+    <row r="323" spans="1:5">
+      <c r="A323" s="3" t="s">
         <v>714</v>
       </c>
       <c r="B323" t="s">
@@ -7832,8 +8255,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="12" t="s">
+    <row r="324" spans="1:5">
+      <c r="A324" s="3" t="s">
         <v>715</v>
       </c>
       <c r="B324" t="s">
@@ -7849,8 +8272,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="12" t="s">
+    <row r="325" spans="1:5">
+      <c r="A325" s="3" t="s">
         <v>716</v>
       </c>
       <c r="B325" t="s">
@@ -7866,8 +8289,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="12" t="s">
+    <row r="326" spans="1:5">
+      <c r="A326" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B326" t="s">
@@ -7883,8 +8306,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="12" t="s">
+    <row r="327" spans="1:5">
+      <c r="A327" s="3" t="s">
         <v>719</v>
       </c>
       <c r="B327" t="s">
@@ -7900,8 +8323,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="12" t="s">
+    <row r="328" spans="1:5">
+      <c r="A328" s="3" t="s">
         <v>720</v>
       </c>
       <c r="B328" t="s">
@@ -7917,8 +8340,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="12" t="s">
+    <row r="329" spans="1:5">
+      <c r="A329" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B329" t="s">
@@ -7934,8 +8357,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="12" t="s">
+    <row r="330" spans="1:5">
+      <c r="A330" s="3" t="s">
         <v>724</v>
       </c>
       <c r="B330" t="s">
@@ -7951,8 +8374,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="12" t="s">
+    <row r="331" spans="1:5">
+      <c r="A331" s="3" t="s">
         <v>725</v>
       </c>
       <c r="B331" t="s">
@@ -7968,8 +8391,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="12" t="s">
+    <row r="332" spans="1:5">
+      <c r="A332" s="3" t="s">
         <v>728</v>
       </c>
       <c r="B332" t="s">
@@ -7985,8 +8408,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="12" t="s">
+    <row r="333" spans="1:5">
+      <c r="A333" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B333" t="s">
@@ -8002,8 +8425,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="12" t="s">
+    <row r="334" spans="1:5">
+      <c r="A334" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B334" t="s">
@@ -8019,11 +8442,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="12" t="s">
+    <row r="335" spans="1:5">
+      <c r="A335" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="5" t="s">
         <v>718</v>
       </c>
       <c r="C335" t="s">
@@ -8036,12 +8459,184 @@
         <v>158</v>
       </c>
     </row>
-    <row r="341" ht="25" customHeight="1">
-      <c r="A341" s="14" t="s">
+    <row r="336" spans="1:5">
+      <c r="A336" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C336" s="4">
+        <v>600340</v>
+      </c>
+      <c r="D336" s="4" t="s">
         <v>732</v>
       </c>
+      <c r="E336" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="E337" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E338" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="E339" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E340" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="25" customHeight="1">
+      <c r="A341" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E341" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>756</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>